--- a/Documents/06_クラス図.xlsx
+++ b/Documents/06_クラス図.xlsx
@@ -194,48 +194,2507 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19654</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3401786" y="530679"/>
+          <a:ext cx="1360714" cy="1081011"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="890374"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SessionCheck.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="422087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- sessionID</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- sessionName</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="1129659"/>
+            <a:ext cx="2041071" cy="291395"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ check(): Boolean</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4762499" y="1945821"/>
+          <a:ext cx="2041072" cy="2653393"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="2185463"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>AccessDB.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707570"/>
+            <a:ext cx="2041071" cy="988690"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng"/>
+              <a:t>instance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>-  PDO</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- res</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- USER</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- PW</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- DNSINFO</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="1696260"/>
+            <a:ext cx="2041071" cy="1019883"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ __construct(): connection</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ toString():</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> string</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ getPDO(): PDO</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> getRes(): res</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>+ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0"/>
+              <a:t>getInstance()</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="none" baseline="0"/>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" baseline="0"/>
+              <a:t>instance</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2599</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>13235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10207956" y="4953000"/>
+          <a:ext cx="4079544" cy="720806"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="744677"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SelectDB.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="114505"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="822076"/>
+            <a:ext cx="2041071" cy="453281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> doSelect($PDO, $sql, $params): records(int =&gt; product)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9525000" y="6545035"/>
+          <a:ext cx="2721429" cy="707572"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="744677"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>InsertDB.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="114505"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="822076"/>
+            <a:ext cx="2041071" cy="453281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ insertDB($PDO,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> $column, $table</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="680357" y="1945821"/>
+          <a:ext cx="2721429" cy="1768931"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="356150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="35615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Controller.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="566295"/>
+            <a:ext cx="2041071" cy="142460"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- accessDB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>selectContorller</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>insertController</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680359" y="708755"/>
+            <a:ext cx="2041071" cy="178075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>require_once("AccessDB.php")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>require_once("</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>SelectContoller.php")</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>require_once("</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>InsertContoller.php")</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687963</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>677757</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>72427</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="38" name="グループ化 37"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14975463" y="6059260"/>
+          <a:ext cx="2711223" cy="1619560"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="964864"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Product.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="573559"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>name</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>unitPrice</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>serchKey</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680359" y="1281130"/>
+            <a:ext cx="2041071" cy="214414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> Product(id, name, unitPrice, serchKey)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687963</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>687963</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>13235</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14975463" y="7763554"/>
+          <a:ext cx="2041071" cy="1271217"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="750450"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>Customer.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="359144"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ame</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680359" y="1066716"/>
+            <a:ext cx="2041071" cy="214414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> Customer(id, name)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687963</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>44902</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14975463" y="3936545"/>
+          <a:ext cx="3394180" cy="1945821"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="1179278"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OrderHistory.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="787973"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- customer_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> product_id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- amount</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680359" y="1495544"/>
+            <a:ext cx="2041071" cy="214414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>OrderHistory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t>(id, name)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>680354</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3401783" y="2053204"/>
+          <a:ext cx="1360717" cy="423297"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7483929" y="6629074"/>
+          <a:ext cx="2041072" cy="23637"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2601</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8977312" y="4748013"/>
+          <a:ext cx="1383727" cy="6890"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687964</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18256</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="530678"/>
-          <a:ext cx="9525000" cy="7143751"/>
+          <a:off x="14501813" y="4748013"/>
+          <a:ext cx="687964" cy="1104306"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln w="28575"/>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687964</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>130674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="43" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14501813" y="4748013"/>
+          <a:ext cx="687964" cy="2716911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>687965</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="カギ線コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14501813" y="3849545"/>
+          <a:ext cx="687965" cy="898468"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="70" name="グループ化 69"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="680357" y="511025"/>
+          <a:ext cx="2041072" cy="1081011"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="890374"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>OrderSystemException.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707571"/>
+            <a:ext cx="2041071" cy="422087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- ErrMsg[cord =&gt; array()]</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="1129659"/>
+            <a:ext cx="2041071" cy="291395"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ construct()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19412</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="グループ化 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4762499" y="4929634"/>
+          <a:ext cx="4082143" cy="1281028"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="1052261"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>SelectController.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707570"/>
+            <a:ext cx="2041071" cy="422156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- connection</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>- selectDB</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="1129727"/>
+            <a:ext cx="2041071" cy="453214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ construct()</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+ selectTable($PDO, Array $column, $table, $parameter):</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> Product</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>87653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="52" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3452810" y="2333627"/>
+          <a:ext cx="1381129" cy="2421276"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>42778</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="77" name="グループ化 76"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4762500" y="6545036"/>
+          <a:ext cx="2721429" cy="1281028"/>
+          <a:chOff x="680357" y="530680"/>
+          <a:chExt cx="2041073" cy="1052261"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680358" y="530680"/>
+            <a:ext cx="2041072" cy="176892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>InsertController.php</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="707570"/>
+            <a:ext cx="2041071" cy="422156"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="680357" y="1129727"/>
+            <a:ext cx="2041071" cy="453214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>+</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+              <a:t> insertRecord()</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>690560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101670</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="カギ線コネクタ 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3452810" y="2333627"/>
+          <a:ext cx="1381129" cy="3935481"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="カギ線コネクタ 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+          <a:endCxn id="73" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1694090" y="1598839"/>
+          <a:ext cx="353785" cy="340180"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -530,8 +2989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -576,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="6">
-        <v>42460</v>
+        <v>42442</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
